--- a/backend/org_charts_output_js/chart_filename_mapping.xlsx
+++ b/backend/org_charts_output_js/chart_filename_mapping.xlsx
@@ -407,7 +407,7 @@
         <v>Account Name</v>
       </c>
       <c r="B1" t="str">
-        <v>Image Name</v>
+        <v>Chart Name</v>
       </c>
     </row>
     <row r="2">
@@ -415,7 +415,7 @@
         <v>Aparajitha Corporate Services Pvt Ltd</v>
       </c>
       <c r="B2" t="str">
-        <v>Aparajitha_Corporate_Services_Pvt_Ltd_INDIA.png</v>
+        <v>Aparajitha_Corporate_Services_Pvt_Ltd_INDIA.html</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>Atria Convergence Technologies Pvt Ltd</v>
       </c>
       <c r="B3" t="str">
-        <v>Atria_Convergence_Technologies_Pvt_Ltd_INDIA.png</v>
+        <v>Atria_Convergence_Technologies_Pvt_Ltd_INDIA.html</v>
       </c>
     </row>
     <row r="4">
@@ -431,7 +431,7 @@
         <v>Au Financiers India Ltd.</v>
       </c>
       <c r="B4" t="str">
-        <v>Au_Financiers_India_Ltd_INDIA.png</v>
+        <v>Au_Financiers_India_Ltd_INDIA.html</v>
       </c>
     </row>
     <row r="5">
@@ -439,7 +439,7 @@
         <v>Azilen Technologies Pvt. Ltd.</v>
       </c>
       <c r="B5" t="str">
-        <v>Azilen_Technologies_Pvt_Ltd_INDIA.png</v>
+        <v>Azilen_Technologies_Pvt_Ltd_INDIA.html</v>
       </c>
     </row>
     <row r="6">
@@ -447,7 +447,7 @@
         <v>Bahwan CyberTek</v>
       </c>
       <c r="B6" t="str">
-        <v>Bahwan_CyberTek_INDIA.png</v>
+        <v>Bahwan_CyberTek_INDIA.html</v>
       </c>
     </row>
     <row r="7">
@@ -455,7 +455,7 @@
         <v>Lenovo India Pvt Ltd</v>
       </c>
       <c r="B7" t="str">
-        <v>Lenovo_India_Pvt_Ltd_INDIA.png</v>
+        <v>Lenovo_India_Pvt_Ltd_INDIA.html</v>
       </c>
     </row>
     <row r="8">
@@ -463,7 +463,7 @@
         <v>Lumen Technologies</v>
       </c>
       <c r="B8" t="str">
-        <v>Lumen_Technologies_INDIA.png</v>
+        <v>Lumen_Technologies_INDIA.html</v>
       </c>
     </row>
     <row r="9">
@@ -471,7 +471,7 @@
         <v>Airtel Lanka</v>
       </c>
       <c r="B9" t="str">
-        <v>Airtel_Lanka_INDIA.png</v>
+        <v>Airtel_Lanka_INDIA.html</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>Adobe Singapore</v>
       </c>
       <c r="B10" t="str">
-        <v>Adobe_Singapore_INDIA.png</v>
+        <v>Adobe_Singapore_INDIA.html</v>
       </c>
     </row>
     <row r="11">
@@ -487,7 +487,7 @@
         <v>Anunta Infrastructure Services</v>
       </c>
       <c r="B11" t="str">
-        <v>Anunta_Infrastructure_Services_INDIA.png</v>
+        <v>Anunta_Infrastructure_Services_INDIA.html</v>
       </c>
     </row>
   </sheetData>
